--- a/metadata_metag.xlsx
+++ b/metadata_metag.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/CRDS_Calcs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{E0F458A8-60A2-402E-9352-B23795441FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7F97441-E3C9-49E8-B17D-B946B04BD462}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{E0F458A8-60A2-402E-9352-B23795441FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53CC081B-C5E8-474F-8FC8-D6B94E8F0960}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="41">
   <si>
     <t>Number</t>
   </si>
@@ -61,18 +61,12 @@
     <t>Inulin</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Winter</t>
   </si>
   <si>
     <t>Spring</t>
   </si>
   <si>
-    <t>Adult</t>
-  </si>
-  <si>
     <t>Mom_Location</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
   </si>
   <si>
     <t>S.P03</t>
-  </si>
-  <si>
-    <t>S.P04</t>
   </si>
   <si>
     <t>I.P07</t>
@@ -992,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1043,7 +1034,7 @@
         <v>4022</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1064,7 +1055,7 @@
         <v>3946</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>148</v>
@@ -1073,7 +1064,7 @@
         <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1081,7 +1072,7 @@
         <v>4016</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1102,7 +1093,7 @@
         <v>3947</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>144</v>
@@ -1111,7 +1102,7 @@
         <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1119,7 +1110,7 @@
         <v>4029</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1140,7 +1131,7 @@
         <v>3949</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4">
         <v>157</v>
@@ -1149,7 +1140,7 @@
         <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1157,7 +1148,7 @@
         <v>4000</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1178,7 +1169,7 @@
         <v>3955</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>225</v>
@@ -1187,7 +1178,7 @@
         <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1195,7 +1186,7 @@
         <v>4036</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1216,7 +1207,7 @@
         <v>3956</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6">
         <v>211</v>
@@ -1225,7 +1216,7 @@
         <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1233,7 +1224,7 @@
         <v>4007</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1254,7 +1245,7 @@
         <v>3957</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>213</v>
@@ -1263,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1271,10 +1262,10 @@
         <v>3997</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1292,7 +1283,7 @@
         <v>3948</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>128.6</v>
@@ -1309,10 +1300,10 @@
         <v>4054</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1330,7 +1321,7 @@
         <v>3945</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>116.5</v>
@@ -1347,10 +1338,10 @@
         <v>3989</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1368,7 +1359,7 @@
         <v>3961</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>126.3</v>
@@ -1385,10 +1376,10 @@
         <v>4050</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1406,7 +1397,7 @@
         <v>3954</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>141.30000000000001</v>
@@ -1423,10 +1414,10 @@
         <v>4017</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1444,7 +1435,7 @@
         <v>3947</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>133.6</v>
@@ -1461,10 +1452,10 @@
         <v>4004</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1482,7 +1473,7 @@
         <v>3955</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13">
         <v>134.6</v>
@@ -1499,10 +1490,10 @@
         <v>3998</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1520,7 +1511,7 @@
         <v>3948</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J14">
         <v>153.80000000000001</v>
@@ -1537,10 +1528,10 @@
         <v>3987</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1558,7 +1549,7 @@
         <v>3961</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J15">
         <v>172.6</v>
@@ -1572,89 +1563,89 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3957</v>
+        <v>4033</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
-        <v>16</v>
+      <c r="H16">
+        <v>3949</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16">
-        <v>143.6</v>
+        <v>154.6</v>
       </c>
       <c r="K16">
-        <v>37.5</v>
+        <v>38.5</v>
       </c>
       <c r="L16">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4033</v>
+        <v>3999</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J17">
-        <v>154.6</v>
+        <v>172.7</v>
       </c>
       <c r="K17">
-        <v>38.5</v>
+        <v>37</v>
       </c>
       <c r="L17">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3999</v>
+        <v>3990</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1663,36 +1654,36 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3948</v>
+        <v>3961</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J18">
-        <v>172.7</v>
+        <v>188.6</v>
       </c>
       <c r="K18">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L18">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3990</v>
+        <v>4012</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1701,62 +1692,24 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>3961</v>
+        <v>3957</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J19">
-        <v>188.6</v>
+        <v>170.1</v>
       </c>
       <c r="K19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L19">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4012</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>3957</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20">
-        <v>170.1</v>
-      </c>
-      <c r="K20">
-        <v>37</v>
-      </c>
-      <c r="L20">
         <v>0.3</v>
       </c>
     </row>

--- a/metadata_metag.xlsx
+++ b/metadata_metag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{E0F458A8-60A2-402E-9352-B23795441FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53CC081B-C5E8-474F-8FC8-D6B94E8F0960}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{E0F458A8-60A2-402E-9352-B23795441FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAEF7D5A-99D1-4CC3-8FFC-C95A27EA7B02}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>Number</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>S.P12</t>
+  </si>
+  <si>
+    <t>Metabolism</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Hibernating</t>
   </si>
 </sst>
 </file>
@@ -983,15 +992,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1037,11 @@
       <c r="L1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4022</v>
       </c>
@@ -1066,8 +1078,11 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4016</v>
       </c>
@@ -1104,8 +1119,11 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4029</v>
       </c>
@@ -1142,8 +1160,11 @@
       <c r="L4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -1180,8 +1201,11 @@
       <c r="L5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4036</v>
       </c>
@@ -1218,8 +1242,11 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4007</v>
       </c>
@@ -1256,8 +1283,11 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3997</v>
       </c>
@@ -1294,8 +1324,11 @@
       <c r="L8">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4054</v>
       </c>
@@ -1332,8 +1365,11 @@
       <c r="L9">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3989</v>
       </c>
@@ -1370,8 +1406,11 @@
       <c r="L10">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4050</v>
       </c>
@@ -1408,8 +1447,11 @@
       <c r="L11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4017</v>
       </c>
@@ -1446,8 +1488,11 @@
       <c r="L12">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4004</v>
       </c>
@@ -1484,8 +1529,11 @@
       <c r="L13">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3998</v>
       </c>
@@ -1522,8 +1570,11 @@
       <c r="L14">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3987</v>
       </c>
@@ -1560,8 +1611,11 @@
       <c r="L15">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4033</v>
       </c>
@@ -1598,8 +1652,11 @@
       <c r="L16">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3999</v>
       </c>
@@ -1636,8 +1693,11 @@
       <c r="L17">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3990</v>
       </c>
@@ -1674,8 +1734,11 @@
       <c r="L18">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4012</v>
       </c>
@@ -1711,6 +1774,9 @@
       </c>
       <c r="L19">
         <v>0.3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
